--- a/biology/Médecine/Amines_aromatiques_(maladie_professionnelle)/Amines_aromatiques_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Amines_aromatiques_(maladie_professionnelle)/Amines_aromatiques_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une intoxication aux amines aromatiques soit reconnue comme maladie professionnelle en France.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour en savoir davantage sur les effets sur la santé se reporter à l'article suivant :
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
